--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_35.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2754735.972491696</v>
+        <v>2750106.843571787</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847144</v>
+        <v>2310564.143223167</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.093379124</v>
+        <v>419463.093379125</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7764547.144777571</v>
+        <v>7762187.227215896</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>193.4781898998387</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
@@ -677,7 +677,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>206.3670033956649</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>74.86702424531208</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>98.54676348899399</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>55.24675346159208</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>88.31115047145109</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>83.84708725779932</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>73.23644228999532</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.54550680795215</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>214.0175430895179</v>
       </c>
       <c r="U7" t="n">
-        <v>274.5027337971041</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>93.86158641218542</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>283.129644314965</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1291,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.22962011024177</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>11.61260049965499</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>74.075846023846</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
@@ -1388,7 +1388,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
         <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>184.4406907987457</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
         <v>273.2977702070789</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H13" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U13" t="n">
         <v>188.5931293662016</v>
@@ -1610,10 +1610,10 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>273.4823810173256</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>81.61838887131803</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
         <v>244.6944667292003</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H16" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.482250613591</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414247</v>
+        <v>42.96247126414198</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003575</v>
+        <v>280.4599644277192</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281733</v>
+        <v>273.213912655535</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415736</v>
+        <v>265.5568836689352</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806955</v>
+        <v>282.5278558080572</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313966</v>
+        <v>296.6956602587583</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029514</v>
+        <v>293.0012941303131</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752488</v>
+        <v>204.8123861026105</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453443</v>
+        <v>20.92391191189608</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443455</v>
+        <v>48.81858568179621</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622521</v>
+        <v>105.2357625896138</v>
       </c>
       <c r="U32" t="n">
-        <v>143.608830915822</v>
+        <v>137.1653684431836</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495914</v>
+        <v>222.6559073769531</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274701</v>
+        <v>251.2592108548317</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623483</v>
+        <v>269.52824518971</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346795</v>
+        <v>276.4959681620412</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046288</v>
+        <v>67.32610467782453</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074528</v>
+        <v>52.47323292810694</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258501</v>
+        <v>38.04694813994666</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546412</v>
+        <v>37.97339019282578</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523139</v>
+        <v>39.72284161259304</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762352</v>
+        <v>50.54167953498518</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419557</v>
+        <v>37.89393170155722</v>
       </c>
       <c r="I34" t="n">
-        <v>22.1771097553675</v>
+        <v>15.73364728272915</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982341</v>
+        <v>6.632145647185069</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535073</v>
+        <v>84.75808915271239</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595228</v>
+        <v>117.3320274868845</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865927</v>
+        <v>166.5545700139543</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734586</v>
+        <v>147.2897179008203</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942088</v>
+        <v>164.4672642215704</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409213</v>
+        <v>115.709685168283</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175977</v>
+        <v>104.8511067449593</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>300.0229587840512</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118667</v>
+        <v>292.776907011867</v>
       </c>
       <c r="D41" t="n">
-        <v>285.119878025267</v>
+        <v>1.098310803919744</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643889</v>
+        <v>302.0908501643892</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2586546150901</v>
+        <v>316.2586546150903</v>
       </c>
       <c r="G41" t="n">
-        <v>312.5642884866449</v>
+        <v>312.5642884866451</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589423</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822788</v>
+        <v>40.48690626822808</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812801</v>
+        <v>68.38158003812821</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>124.7987569459458</v>
       </c>
       <c r="U41" t="n">
-        <v>73.15313084922511</v>
+        <v>156.7283627995157</v>
       </c>
       <c r="V41" t="n">
-        <v>242.2189017332848</v>
+        <v>242.2189017332851</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111635</v>
+        <v>270.8222052111637</v>
       </c>
       <c r="X41" t="n">
-        <v>289.0912395460418</v>
+        <v>289.091239546042</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.0589625183729</v>
+        <v>296.0589625183732</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415633</v>
+        <v>86.88909903415653</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443874</v>
+        <v>72.03622728443894</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627846</v>
+        <v>57.60994249627866</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915757</v>
+        <v>57.53638454915777</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892484</v>
+        <v>59.28583596892504</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131698</v>
+        <v>70.10467389131718</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788902</v>
+        <v>57.45692605788922</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906095</v>
+        <v>35.29664163906115</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351687</v>
+        <v>26.19514000351707</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090442</v>
+        <v>104.3210835090444</v>
       </c>
       <c r="T43" t="n">
-        <v>136.8950218432163</v>
+        <v>136.8950218432165</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1175643702861</v>
+        <v>186.1175643702863</v>
       </c>
       <c r="V43" t="n">
-        <v>166.8527122571521</v>
+        <v>166.8527122571523</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779022</v>
+        <v>184.0302585779024</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246148</v>
+        <v>135.272679524615</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012911</v>
+        <v>124.4141011012913</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.022958784051</v>
+        <v>300.0229587840512</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118667</v>
+        <v>292.776907011867</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>41.5852170721481</v>
       </c>
       <c r="E44" t="n">
-        <v>302.0908501643889</v>
+        <v>302.0908501643892</v>
       </c>
       <c r="F44" t="n">
-        <v>316.2586546150901</v>
+        <v>316.2586546150903</v>
       </c>
       <c r="G44" t="n">
-        <v>312.5642884866449</v>
+        <v>312.5642884866451</v>
       </c>
       <c r="H44" t="n">
-        <v>1.09831080392223</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822788</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812801</v>
+        <v>68.38158003812821</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459456</v>
+        <v>124.7987569459458</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995154</v>
+        <v>156.7283627995157</v>
       </c>
       <c r="V44" t="n">
-        <v>242.2189017332848</v>
+        <v>242.2189017332851</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111635</v>
+        <v>270.8222052111637</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460418</v>
+        <v>289.091239546042</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.0589625183729</v>
+        <v>296.0589625183732</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415633</v>
+        <v>86.88909903415653</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443874</v>
+        <v>72.03622728443894</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627846</v>
+        <v>57.60994249627866</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915757</v>
+        <v>57.53638454915777</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892484</v>
+        <v>59.28583596892504</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131698</v>
+        <v>70.10467389131718</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788902</v>
+        <v>57.45692605788922</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906095</v>
+        <v>35.29664163906115</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351687</v>
+        <v>26.19514000351707</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090442</v>
+        <v>104.3210835090444</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8950218432163</v>
+        <v>136.8950218432165</v>
       </c>
       <c r="U46" t="n">
-        <v>186.1175643702861</v>
+        <v>186.1175643702863</v>
       </c>
       <c r="V46" t="n">
-        <v>166.8527122571521</v>
+        <v>166.8527122571523</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0302585779022</v>
+        <v>184.0302585779024</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246148</v>
+        <v>135.272679524615</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012911</v>
+        <v>124.4141011012913</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1519.53571236711</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="C2" t="n">
-        <v>1126.36021087004</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="D2" t="n">
-        <v>1126.36021087004</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="E2" t="n">
-        <v>930.9276958196983</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="F2" t="n">
-        <v>918.0736613900801</v>
+        <v>777.7441318441286</v>
       </c>
       <c r="G2" t="n">
-        <v>504.9109058780832</v>
+        <v>364.5813763321318</v>
       </c>
       <c r="H2" t="n">
-        <v>180.8278554445739</v>
+        <v>40.4983258986224</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703869</v>
+        <v>40.4983258986224</v>
       </c>
       <c r="J2" t="n">
-        <v>42.49073853703869</v>
+        <v>185.1480988074505</v>
       </c>
       <c r="K2" t="n">
-        <v>42.49073853703869</v>
+        <v>242.202127193289</v>
       </c>
       <c r="L2" t="n">
-        <v>535.8110302555675</v>
+        <v>735.5224189118178</v>
       </c>
       <c r="M2" t="n">
-        <v>810.4869444322303</v>
+        <v>1236.68920190727</v>
       </c>
       <c r="N2" t="n">
-        <v>1336.309833828084</v>
+        <v>1236.68920190727</v>
       </c>
       <c r="O2" t="n">
-        <v>1776.349434720413</v>
+        <v>1676.728802799598</v>
       </c>
       <c r="P2" t="n">
-        <v>2124.536926851934</v>
+        <v>2024.91629493112</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851934</v>
+        <v>2024.91629493112</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137456</v>
+        <v>1986.923381216642</v>
       </c>
       <c r="S2" t="n">
-        <v>1920.030458078507</v>
+        <v>1820.409826157693</v>
       </c>
       <c r="T2" t="n">
-        <v>1920.030458078507</v>
+        <v>1596.909223717109</v>
       </c>
       <c r="U2" t="n">
-        <v>1920.030458078507</v>
+        <v>1341.156494151708</v>
       </c>
       <c r="V2" t="n">
-        <v>1920.030458078507</v>
+        <v>999.0496848552265</v>
       </c>
       <c r="W2" t="n">
-        <v>1920.030458078507</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="X2" t="n">
-        <v>1920.030458078507</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="Y2" t="n">
-        <v>1920.030458078507</v>
+        <v>790.5981662737468</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>841.8567216770696</v>
+        <v>657.7430775364769</v>
       </c>
       <c r="C3" t="n">
-        <v>691.2024912371618</v>
+        <v>507.0888470965691</v>
       </c>
       <c r="D3" t="n">
-        <v>561.1135238586421</v>
+        <v>376.9998797180494</v>
       </c>
       <c r="E3" t="n">
-        <v>424.6670329695299</v>
+        <v>240.5533888289372</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526617</v>
+        <v>116.121582712069</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245262</v>
+        <v>40.4983258986224</v>
       </c>
       <c r="H3" t="n">
-        <v>91.8779925251271</v>
+        <v>40.4983258986224</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703869</v>
+        <v>40.4983258986224</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567661</v>
+        <v>153.6133081183498</v>
       </c>
       <c r="K3" t="n">
-        <v>475.3448668189925</v>
+        <v>153.6133081183498</v>
       </c>
       <c r="L3" t="n">
-        <v>958.9109527173057</v>
+        <v>637.1793940166631</v>
       </c>
       <c r="M3" t="n">
-        <v>968.0301839896653</v>
+        <v>637.1793940166631</v>
       </c>
       <c r="N3" t="n">
-        <v>968.0301839896653</v>
+        <v>1138.346177012115</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.550466580646</v>
+        <v>1384.929834659832</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297044</v>
+        <v>1790.55120337623</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851934</v>
+        <v>2024.91629493112</v>
       </c>
       <c r="R3" t="n">
-        <v>2124.536926851934</v>
+        <v>2000.999251829185</v>
       </c>
       <c r="S3" t="n">
-        <v>2124.536926851934</v>
+        <v>1866.068574729054</v>
       </c>
       <c r="T3" t="n">
-        <v>2024.994741509516</v>
+        <v>1689.084762927962</v>
       </c>
       <c r="U3" t="n">
-        <v>1814.931598188158</v>
+        <v>1479.021619606604</v>
       </c>
       <c r="V3" t="n">
-        <v>1592.391596559225</v>
+        <v>1256.481617977671</v>
       </c>
       <c r="W3" t="n">
-        <v>1362.274350692512</v>
+        <v>1026.364372110958</v>
       </c>
       <c r="X3" t="n">
-        <v>1172.967273042524</v>
+        <v>837.0572944609696</v>
       </c>
       <c r="Y3" t="n">
-        <v>993.6530561180309</v>
+        <v>657.7430775364769</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>943.9377610785911</v>
+        <v>241.0817140065312</v>
       </c>
       <c r="C4" t="n">
-        <v>943.9377610785911</v>
+        <v>70.87659607252046</v>
       </c>
       <c r="D4" t="n">
-        <v>842.5807859407439</v>
+        <v>70.87659607252046</v>
       </c>
       <c r="E4" t="n">
-        <v>687.0219737999464</v>
+        <v>70.87659607252046</v>
       </c>
       <c r="F4" t="n">
-        <v>529.6960390129194</v>
+        <v>70.87659607252046</v>
       </c>
       <c r="G4" t="n">
-        <v>361.4419851123649</v>
+        <v>70.87659607252046</v>
       </c>
       <c r="H4" t="n">
-        <v>205.9634340738589</v>
+        <v>70.87659607252046</v>
       </c>
       <c r="I4" t="n">
-        <v>72.86900871093674</v>
+        <v>70.87659607252046</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703869</v>
+        <v>40.4983258986224</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469805</v>
+        <v>122.3333670085643</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207804</v>
+        <v>286.461006882364</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590444</v>
+        <v>472.752585220628</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902535</v>
+        <v>655.9422192518373</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319615</v>
+        <v>818.6469862935453</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085401</v>
+        <v>938.5231520701238</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785911</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785911</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785911</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="T4" t="n">
-        <v>943.9377610785911</v>
+        <v>582.3253072409859</v>
       </c>
       <c r="U4" t="n">
-        <v>943.9377610785911</v>
+        <v>296.8865154828869</v>
       </c>
       <c r="V4" t="n">
-        <v>943.9377610785911</v>
+        <v>296.8865154828869</v>
       </c>
       <c r="W4" t="n">
-        <v>943.9377610785911</v>
+        <v>296.8865154828869</v>
       </c>
       <c r="X4" t="n">
-        <v>943.9377610785911</v>
+        <v>296.8865154828869</v>
       </c>
       <c r="Y4" t="n">
-        <v>943.9377610785911</v>
+        <v>296.8865154828869</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>951.1718841849115</v>
+        <v>551.2091433733681</v>
       </c>
       <c r="C5" t="n">
-        <v>951.1718841849115</v>
+        <v>551.2091433733681</v>
       </c>
       <c r="D5" t="n">
-        <v>951.1718841849115</v>
+        <v>551.2091433733681</v>
       </c>
       <c r="E5" t="n">
-        <v>548.588359301456</v>
+        <v>551.2091433733681</v>
       </c>
       <c r="F5" t="n">
-        <v>131.6939208314337</v>
+        <v>538.3551089437499</v>
       </c>
       <c r="G5" t="n">
-        <v>42.49073853703869</v>
+        <v>125.192353431753</v>
       </c>
       <c r="H5" t="n">
-        <v>42.49073853703869</v>
+        <v>40.4983258986224</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703869</v>
+        <v>40.4983258986224</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1405114458668</v>
+        <v>185.1480988074505</v>
       </c>
       <c r="K5" t="n">
-        <v>546.1228674733286</v>
+        <v>544.1304548349124</v>
       </c>
       <c r="L5" t="n">
-        <v>1039.443159191857</v>
+        <v>990.7164596631978</v>
       </c>
       <c r="M5" t="n">
-        <v>1565.266048587711</v>
+        <v>1491.88324265865</v>
       </c>
       <c r="N5" t="n">
-        <v>2091.088937983565</v>
+        <v>1491.88324265865</v>
       </c>
       <c r="O5" t="n">
-        <v>2124.536926851934</v>
+        <v>1491.88324265865</v>
       </c>
       <c r="P5" t="n">
-        <v>2124.536926851934</v>
+        <v>1840.070734790172</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851934</v>
+        <v>2024.91629493112</v>
       </c>
       <c r="R5" t="n">
-        <v>2086.544013137456</v>
+        <v>1986.923381216642</v>
       </c>
       <c r="S5" t="n">
-        <v>1920.030458078507</v>
+        <v>1820.409826157693</v>
       </c>
       <c r="T5" t="n">
-        <v>1920.030458078507</v>
+        <v>1596.909223717109</v>
       </c>
       <c r="U5" t="n">
-        <v>1664.277728513106</v>
+        <v>1341.156494151708</v>
       </c>
       <c r="V5" t="n">
-        <v>1322.170919216624</v>
+        <v>1341.156494151708</v>
       </c>
       <c r="W5" t="n">
-        <v>951.1718841849115</v>
+        <v>1341.156494151708</v>
       </c>
       <c r="X5" t="n">
-        <v>951.1718841849115</v>
+        <v>951.7038890847649</v>
       </c>
       <c r="Y5" t="n">
-        <v>951.1718841849115</v>
+        <v>951.7038890847649</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>605.5673750163294</v>
+        <v>736.0639889622287</v>
       </c>
       <c r="C6" t="n">
-        <v>454.9131445764216</v>
+        <v>585.4097585223209</v>
       </c>
       <c r="D6" t="n">
-        <v>324.8241771979019</v>
+        <v>455.3207911438012</v>
       </c>
       <c r="E6" t="n">
-        <v>324.8241771979019</v>
+        <v>318.8743002546889</v>
       </c>
       <c r="F6" t="n">
-        <v>250.8479728645733</v>
+        <v>194.4424941378207</v>
       </c>
       <c r="G6" t="n">
-        <v>130.7881549364378</v>
+        <v>74.38267620968519</v>
       </c>
       <c r="H6" t="n">
-        <v>42.49073853703869</v>
+        <v>74.38267620968519</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703869</v>
+        <v>40.4983258986224</v>
       </c>
       <c r="J6" t="n">
-        <v>42.49073853703869</v>
+        <v>153.6133081183498</v>
       </c>
       <c r="K6" t="n">
-        <v>42.49073853703869</v>
+        <v>473.3524541805762</v>
       </c>
       <c r="L6" t="n">
-        <v>42.49073853703869</v>
+        <v>956.9185400788895</v>
       </c>
       <c r="M6" t="n">
-        <v>442.2072945938115</v>
+        <v>956.9185400788895</v>
       </c>
       <c r="N6" t="n">
-        <v>968.0301839896653</v>
+        <v>1458.085323074342</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.550466580646</v>
+        <v>1619.294926214723</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.171835297044</v>
+        <v>2024.91629493112</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851934</v>
+        <v>2024.91629493112</v>
       </c>
       <c r="R6" t="n">
-        <v>2100.619883749999</v>
+        <v>2000.999251829185</v>
       </c>
       <c r="S6" t="n">
-        <v>1965.689206649868</v>
+        <v>1866.068574729054</v>
       </c>
       <c r="T6" t="n">
-        <v>1788.705394848776</v>
+        <v>1689.084762927962</v>
       </c>
       <c r="U6" t="n">
-        <v>1578.642251527418</v>
+        <v>1479.021619606604</v>
       </c>
       <c r="V6" t="n">
-        <v>1356.102249898485</v>
+        <v>1256.481617977671</v>
       </c>
       <c r="W6" t="n">
-        <v>1125.985004031772</v>
+        <v>1256.481617977671</v>
       </c>
       <c r="X6" t="n">
-        <v>936.6779263817834</v>
+        <v>1067.174540327683</v>
       </c>
       <c r="Y6" t="n">
-        <v>757.3637094572907</v>
+        <v>887.86032340319</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.1238516345239</v>
+        <v>40.4983258986224</v>
       </c>
       <c r="C7" t="n">
-        <v>198.1238516345239</v>
+        <v>40.4983258986224</v>
       </c>
       <c r="D7" t="n">
-        <v>42.49073853703869</v>
+        <v>40.4983258986224</v>
       </c>
       <c r="E7" t="n">
-        <v>42.49073853703869</v>
+        <v>40.4983258986224</v>
       </c>
       <c r="F7" t="n">
-        <v>42.49073853703869</v>
+        <v>40.4983258986224</v>
       </c>
       <c r="G7" t="n">
-        <v>42.49073853703869</v>
+        <v>40.4983258986224</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703869</v>
+        <v>40.4983258986224</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703869</v>
+        <v>40.4983258986224</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703869</v>
+        <v>40.4983258986224</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469805</v>
+        <v>122.3333670085643</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207804</v>
+        <v>286.461006882364</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590444</v>
+        <v>472.752585220628</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902535</v>
+        <v>655.9422192518373</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319615</v>
+        <v>818.6469862935453</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085401</v>
+        <v>938.5231520701238</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785911</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785911</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785911</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="T7" t="n">
-        <v>943.9377610785911</v>
+        <v>725.7660119861164</v>
       </c>
       <c r="U7" t="n">
-        <v>666.6622723946475</v>
+        <v>725.7660119861164</v>
       </c>
       <c r="V7" t="n">
-        <v>666.6622723946475</v>
+        <v>459.7866668069406</v>
       </c>
       <c r="W7" t="n">
-        <v>383.3318703258252</v>
+        <v>459.7866668069406</v>
       </c>
       <c r="X7" t="n">
-        <v>383.3318703258252</v>
+        <v>225.7063445899237</v>
       </c>
       <c r="Y7" t="n">
-        <v>383.3318703258252</v>
+        <v>225.7063445899237</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.9059862831563</v>
+        <v>1285.397995218369</v>
       </c>
       <c r="C8" t="n">
-        <v>454.7304847860868</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="D8" t="n">
-        <v>69.28935600275456</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="E8" t="n">
-        <v>69.28935600275456</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>879.3684592916816</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>466.2057037796847</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>142.1226533461754</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>538.1002202902207</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>1031.420512008749</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936232</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>1905.389306738351</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1905.389306738351</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>1534.390271706639</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>1534.390271706639</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y8" t="n">
-        <v>1248.400731994553</v>
+        <v>1285.397995218369</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>530.8790559998569</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1651.163108396702</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>528.7100132738371</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>358.5048953398264</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>202.8717822423411</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="X10" t="n">
-        <v>937.0300931484951</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.9180319651384</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1509.593365335563</v>
+        <v>1320.171044252417</v>
       </c>
       <c r="C11" t="n">
-        <v>1211.358545125682</v>
+        <v>1021.936224042536</v>
       </c>
       <c r="D11" t="n">
-        <v>920.8580976295375</v>
+        <v>731.4357765463915</v>
       </c>
       <c r="E11" t="n">
-        <v>613.2152540332704</v>
+        <v>656.6116896536174</v>
       </c>
       <c r="F11" t="n">
-        <v>291.2614968504365</v>
+        <v>334.6579324707835</v>
       </c>
       <c r="G11" t="n">
-        <v>291.2614968504365</v>
+        <v>334.6579324707835</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244625</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5069,22 +5069,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2873.571463155802</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2687.267735076261</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2411.209381331736</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2116.697457551982</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y11" t="n">
-        <v>1815.147429759771</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5124,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>174.7633905351325</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M12" t="n">
-        <v>802.5350401618138</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551007</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082783</v>
       </c>
       <c r="D13" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979814</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443726</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445337</v>
       </c>
       <c r="G13" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311674</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2728717798493</v>
+        <v>100.2728717798498</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757664</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791394</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
         <v>836.805091346977</v>
@@ -5227,22 +5227,22 @@
         <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
-        <v>1400.589220329742</v>
+        <v>1400.589220329743</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852102</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X13" t="n">
         <v>711.5230842553817</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592135</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1598.67307041405</v>
+        <v>1320.171044252417</v>
       </c>
       <c r="C14" t="n">
-        <v>1300.438250204169</v>
+        <v>1021.936224042536</v>
       </c>
       <c r="D14" t="n">
-        <v>1009.937802708025</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="E14" t="n">
-        <v>702.2949591117579</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F14" t="n">
-        <v>380.341201928924</v>
+        <v>423.7376375492708</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>3023.513568164041</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2776.347440154748</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W14" t="n">
-        <v>2500.289086410224</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2205.777162630469</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y14" t="n">
-        <v>1904.227134838258</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>175.2341099238429</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>803.0057595505241</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.783730761083</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P15" t="n">
         <v>2146.089571124861</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082778</v>
       </c>
       <c r="D16" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311671</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
@@ -5434,16 +5434,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362511</v>
       </c>
       <c r="K16" t="n">
-        <v>300.283149675766</v>
+        <v>300.2831496757663</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791389</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469763</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
@@ -5455,7 +5455,7 @@
         <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
@@ -5476,10 +5476,10 @@
         <v>850.6627251852101</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592132</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,22 +5540,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5601,10 +5601,10 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1493.196009291336</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.973980501895</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,19 +5674,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222412</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L19" t="n">
-        <v>313.661451296041</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5835,10 +5835,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,52 +5884,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229942</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358934</v>
@@ -6005,7 +6005,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
         <v>3105.956385205776</v>
@@ -6014,10 +6014,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
         <v>2855.219708188068</v>
@@ -6029,10 +6029,10 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218804</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072677</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462919</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
         <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879432</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974524</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6218,10 +6218,10 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755023</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
@@ -6233,40 +6233,40 @@
         <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1925.441780118092</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755554</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379498</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377511</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,25 +6297,25 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755023</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>506.218987229504</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>989.7850731278172</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>1095.935962441339</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746016</v>
       </c>
       <c r="H28" t="n">
         <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755023</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904117</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6406,28 +6406,28 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S28" t="n">
         <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
-        <v>1411.834951573177</v>
+        <v>1411.834951573176</v>
       </c>
       <c r="U28" t="n">
         <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286443</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988158</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424151</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.22278621427</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718126</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218597</v>
+        <v>986.0794951218591</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390256</v>
+        <v>664.1257379390252</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142171</v>
+        <v>345.9036637142167</v>
       </c>
       <c r="H29" t="n">
-        <v>116.7612945678962</v>
+        <v>116.7612945678957</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755023</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884791</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658945</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379498</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377511</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
         <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174142</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.131976164849</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420325</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.56169864057</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755023</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755023</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097766</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080898</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746016</v>
       </c>
       <c r="H31" t="n">
         <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755023</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796863</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
         <v>1592.975474628627</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084634</v>
+        <v>1719.814764781099</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.88481598547</v>
+        <v>1443.841115634094</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600042</v>
+        <v>1175.601839200826</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144909</v>
+        <v>890.2201666674353</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423731</v>
+        <v>590.5275805474773</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282807</v>
+        <v>294.5666773855448</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267608</v>
+        <v>87.68547930209982</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304534</v>
+        <v>66.55021474462903</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918735</v>
+        <v>211.1999876534571</v>
       </c>
       <c r="K32" t="n">
-        <v>572.1747563193353</v>
+        <v>570.182343680919</v>
       </c>
       <c r="L32" t="n">
-        <v>1065.495048037864</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1611.495948082445</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2139.307231719907</v>
+        <v>2137.31481908149</v>
       </c>
       <c r="O32" t="n">
-        <v>2605.863648690198</v>
+        <v>2692.223955462117</v>
       </c>
       <c r="P32" t="n">
-        <v>3062.541648462106</v>
+        <v>3040.411447593639</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.877716243441</v>
+        <v>3327.510737231451</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152267</v>
+        <v>3327.510737231451</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491222</v>
+        <v>3278.199034522566</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448543</v>
+        <v>3171.900284432047</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281046</v>
+        <v>3033.34940721671</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382469</v>
+        <v>2808.444450270293</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748661</v>
+        <v>2554.647267588644</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079622</v>
+        <v>2282.396514871765</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398127</v>
+        <v>2003.107658142431</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230763</v>
+        <v>865.9161978846601</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831685</v>
+        <v>715.2619674447523</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046488</v>
+        <v>585.1730000662326</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155365</v>
+        <v>448.7265091771202</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986683</v>
+        <v>324.2947030602521</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705328</v>
+        <v>204.2348851321165</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711337</v>
+        <v>115.9374687327174</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304534</v>
+        <v>66.55021474462903</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027727</v>
+        <v>179.6651969643564</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649991</v>
+        <v>499.4043430265829</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633124</v>
+        <v>499.4043430265829</v>
       </c>
       <c r="M33" t="n">
-        <v>1230.371419496412</v>
+        <v>1127.175992653264</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2188.57533258022</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766816</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.01916188853</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590175</v>
+        <v>341.6872565554816</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229111</v>
+        <v>288.6839909715351</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233303</v>
+        <v>250.2527302241143</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804373</v>
+        <v>211.8957704333812</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913147</v>
+        <v>171.7716879964185</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886646</v>
+        <v>120.7194864459284</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806302</v>
+        <v>82.44278775748676</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304534</v>
+        <v>66.55021474462903</v>
       </c>
       <c r="J34" t="n">
-        <v>147.259392425994</v>
+        <v>66.55021474462903</v>
       </c>
       <c r="K34" t="n">
-        <v>337.584941176322</v>
+        <v>148.3852558545709</v>
       </c>
       <c r="L34" t="n">
-        <v>610.2030886905079</v>
+        <v>312.5128957283707</v>
       </c>
       <c r="M34" t="n">
-        <v>854.9015605323564</v>
+        <v>613.6740095549328</v>
       </c>
       <c r="N34" t="n">
-        <v>1146.581702203952</v>
+        <v>810.7134513543799</v>
       </c>
       <c r="O34" t="n">
-        <v>1309.28646924566</v>
+        <v>1088.287753884386</v>
       </c>
       <c r="P34" t="n">
-        <v>1429.162635022238</v>
+        <v>1323.033455149263</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392289</v>
+        <v>1326.455651519314</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.37714642277</v>
+        <v>1319.756514501955</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003224</v>
+        <v>1234.142283034569</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569363</v>
+        <v>1115.625083552867</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209168</v>
+        <v>947.3881441448327</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914278969</v>
+        <v>798.6106513157213</v>
       </c>
       <c r="W34" t="n">
-        <v>699.559993756979</v>
+        <v>632.4821015969633</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378666</v>
+        <v>515.6036317300108</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524143</v>
+        <v>409.6934228967185</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6962,22 +6962,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7099,22 +7099,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P37" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7202,19 +7202,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P40" t="n">
         <v>1094.779966106229</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1853.707880260103</v>
+        <v>1340.175609875974</v>
       </c>
       <c r="C41" t="n">
-        <v>1557.973630753167</v>
+        <v>1044.441360369037</v>
       </c>
       <c r="D41" t="n">
-        <v>1269.973753959968</v>
+        <v>1043.331955516593</v>
       </c>
       <c r="E41" t="n">
-        <v>964.8314810666461</v>
+        <v>738.1896826232705</v>
       </c>
       <c r="F41" t="n">
-        <v>645.3782945867571</v>
+        <v>418.7364961433814</v>
       </c>
       <c r="G41" t="n">
-        <v>329.6567910648935</v>
+        <v>103.0149926215176</v>
       </c>
       <c r="H41" t="n">
-        <v>103.0149926215174</v>
+        <v>103.0149926215176</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7439,22 +7439,22 @@
         <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>3036.88408213696</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>2962.992030774106</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V41" t="n">
-        <v>2718.326473467758</v>
+        <v>2507.847696804893</v>
       </c>
       <c r="W41" t="n">
-        <v>2444.768690426179</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X41" t="n">
-        <v>2152.757337349369</v>
+        <v>1942.278560686503</v>
       </c>
       <c r="Y41" t="n">
-        <v>1853.707880260103</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="42">
@@ -7488,16 +7488,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344858</v>
+        <v>475.5803720344872</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906083</v>
+        <v>402.8165060906095</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832563</v>
+        <v>344.6246449832573</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325921</v>
+        <v>286.5070848325929</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356983</v>
+        <v>226.6224020356989</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252771</v>
+        <v>155.8096001252775</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690437</v>
+        <v>97.77230107690457</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>68.2319501674381</v>
+        <v>68.23195016744262</v>
       </c>
       <c r="K43" t="n">
-        <v>245.5691623529096</v>
+        <v>245.5691623529139</v>
       </c>
       <c r="L43" t="n">
-        <v>505.198973302239</v>
+        <v>505.1989733022431</v>
       </c>
       <c r="M43" t="n">
-        <v>786.9927227160326</v>
+        <v>786.9927227160365</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.684527822772</v>
+        <v>1065.684527822775</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.891465940009</v>
+        <v>1323.891465940013</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792117</v>
+        <v>1539.269802792121</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237698</v>
+        <v>1638.194170237701</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.734432860408</v>
+        <v>1611.734432860411</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033091</v>
+        <v>1506.359601033094</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.081801191458</v>
+        <v>1368.081801191461</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423493</v>
+        <v>1180.084261423495</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234452</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557609</v>
+        <v>825.6570181557629</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288772</v>
+        <v>689.017947928879</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356539</v>
+        <v>563.3471387356554</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1340.175609875974</v>
+        <v>1340.175609875973</v>
       </c>
       <c r="C44" t="n">
-        <v>1044.441360369038</v>
+        <v>1044.441360369037</v>
       </c>
       <c r="D44" t="n">
-        <v>1044.441360369038</v>
+        <v>1002.436090599191</v>
       </c>
       <c r="E44" t="n">
-        <v>739.2990874757161</v>
+        <v>697.2938177058684</v>
       </c>
       <c r="F44" t="n">
-        <v>419.8459009958274</v>
+        <v>377.8406312259793</v>
       </c>
       <c r="G44" t="n">
-        <v>104.1243974739641</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0149926215174</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3036.884082136959</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
         <v>2910.824731686509</v>
       </c>
       <c r="U44" t="n">
-        <v>2752.513254111242</v>
+        <v>2752.513254111241</v>
       </c>
       <c r="V44" t="n">
         <v>2507.847696804893</v>
       </c>
       <c r="W44" t="n">
-        <v>2234.289913763314</v>
+        <v>2234.289913763313</v>
       </c>
       <c r="X44" t="n">
-        <v>1942.278560686504</v>
+        <v>1942.278560686503</v>
       </c>
       <c r="Y44" t="n">
-        <v>1643.229103597238</v>
+        <v>1643.229103597237</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.8582737663419</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1975.304013352064</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344858</v>
+        <v>475.5803720344872</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906083</v>
+        <v>402.8165060906095</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832563</v>
+        <v>344.6246449832573</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325921</v>
+        <v>286.5070848325929</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356983</v>
+        <v>226.6224020356989</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252771</v>
+        <v>155.8096001252775</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690437</v>
+        <v>97.77230107690457</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>68.2319501674381</v>
+        <v>127.8475561822075</v>
       </c>
       <c r="K46" t="n">
-        <v>245.5691623529096</v>
+        <v>305.1847683676788</v>
       </c>
       <c r="L46" t="n">
-        <v>505.198973302239</v>
+        <v>564.8145793170079</v>
       </c>
       <c r="M46" t="n">
-        <v>786.9927227160326</v>
+        <v>846.6083287308013</v>
       </c>
       <c r="N46" t="n">
-        <v>1065.684527822772</v>
+        <v>1065.684527822775</v>
       </c>
       <c r="O46" t="n">
-        <v>1323.891465940009</v>
+        <v>1323.891465940013</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.269802792117</v>
+        <v>1539.269802792121</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.194170237698</v>
+        <v>1638.194170237701</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.734432860408</v>
+        <v>1611.734432860411</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.359601033091</v>
+        <v>1506.359601033094</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.081801191458</v>
+        <v>1368.081801191461</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423493</v>
+        <v>1180.084261423495</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234452</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557609</v>
+        <v>825.6570181557629</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288772</v>
+        <v>689.017947928879</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356539</v>
+        <v>563.3471387356554</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>200.6887348821045</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>427.1754699579927</v>
+        <v>655.9541253305074</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507677</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8058,19 +8058,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>101.598466768867</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>591.6011865869467</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>341.7619605532495</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8219,22 +8219,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>604.3451443045175</v>
       </c>
       <c r="M5" t="n">
-        <v>680.8592833107109</v>
+        <v>655.9541253305074</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507677</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>183.3496847658838</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>496.1412190763552</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>616.5063445671502</v>
+        <v>591.6011865869467</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>255.5255418589709</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>492.6922186134283</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8462,16 +8462,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
-        <v>359.0336792490003</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,28 +8529,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>415.8062469585533</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>577.6575640662504</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8772,13 +8772,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>203.8424305246122</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9006,22 +9006,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O15" t="n">
-        <v>377.2173282296772</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9182,7 +9182,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9249,13 +9249,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>438.5811111539143</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>87.08336481931465</v>
@@ -9483,13 +9483,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M21" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,25 +9714,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>199.6102425680205</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,16 +10197,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>744.8605591506557</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10431,22 +10431,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069886</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>289.2815038024237</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>517.3131487114046</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>112.3087888732267</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11373,25 +11373,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>259.5940292362812</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>230.4905691364584</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>60.25377593045467</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.11306200385682</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>77.58553892411287</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-1.125499693443999e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.022958784051</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>284.0215672213475</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>224.3753804589425</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25679,10 +25679,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459456</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>83.57523195029032</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>285.119878025267</v>
+        <v>243.5346609531191</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>223.2770696550201</v>
+        <v>224.3753804589425</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.48690626822808</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>674034.6197998521</v>
+        <v>672831.5245723317</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>674034.6197998521</v>
+        <v>672831.5245723317</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>644783.6013599609</v>
+        <v>644783.601359961</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>644783.601359961</v>
+        <v>644783.6013599609</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>682779.7952953756</v>
+        <v>682779.7952953757</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>647369.9478894436</v>
+        <v>647369.9478894434</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>647369.9478894436</v>
+        <v>647369.9478894434</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>631162.623326749</v>
+      </c>
+      <c r="C2" t="n">
+        <v>631162.6233267486</v>
+      </c>
+      <c r="D2" t="n">
         <v>631162.6233267488</v>
       </c>
-      <c r="C2" t="n">
-        <v>631162.6233267487</v>
-      </c>
-      <c r="D2" t="n">
-        <v>631162.623326749</v>
-      </c>
       <c r="E2" t="n">
-        <v>593166.4293913341</v>
+        <v>593166.4293913346</v>
       </c>
       <c r="F2" t="n">
-        <v>593166.4293913342</v>
+        <v>593166.4293913345</v>
       </c>
       <c r="G2" t="n">
         <v>631162.6233267491</v>
@@ -26332,19 +26332,19 @@
         <v>631162.623326749</v>
       </c>
       <c r="I2" t="n">
-        <v>631162.6233267491</v>
+        <v>631162.6233267488</v>
       </c>
       <c r="J2" t="n">
-        <v>631162.6233267485</v>
+        <v>631162.6233267487</v>
       </c>
       <c r="K2" t="n">
-        <v>631162.6233267485</v>
+        <v>631162.6233267487</v>
       </c>
       <c r="L2" t="n">
         <v>631162.6233267491</v>
       </c>
       <c r="M2" t="n">
-        <v>631162.6233267492</v>
+        <v>631162.6233267491</v>
       </c>
       <c r="N2" t="n">
         <v>631162.623326749</v>
@@ -26353,7 +26353,7 @@
         <v>595752.7759208159</v>
       </c>
       <c r="P2" t="n">
-        <v>595752.7759208158</v>
+        <v>595752.7759208156</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343502</v>
+        <v>169649.0058765505</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602704</v>
+        <v>26460.41160941765</v>
       </c>
       <c r="E3" t="n">
-        <v>130452.9311377121</v>
+        <v>130452.9311377122</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301434</v>
+        <v>29094.95587301435</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469662</v>
+        <v>215329.5897923937</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.0333767015</v>
+        <v>46725.80335481216</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436855</v>
+        <v>43782.97194555659</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015688</v>
+        <v>18983.55983015667</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213463.5449614856</v>
+        <v>218972.6240101875</v>
       </c>
       <c r="C4" t="n">
-        <v>213463.5449614855</v>
+        <v>218972.6240101875</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
       </c>
       <c r="E4" t="n">
-        <v>148856.2633404648</v>
+        <v>148856.2633404649</v>
       </c>
       <c r="F4" t="n">
-        <v>148856.2633404648</v>
+        <v>148856.2633404649</v>
       </c>
       <c r="G4" t="n">
         <v>173460.5839839468</v>
@@ -26439,13 +26439,13 @@
         <v>173460.5839839468</v>
       </c>
       <c r="J4" t="n">
-        <v>174211.0764483299</v>
+        <v>174211.0764483298</v>
       </c>
       <c r="K4" t="n">
-        <v>174211.0764483299</v>
+        <v>174211.0764483298</v>
       </c>
       <c r="L4" t="n">
-        <v>173888.2217936687</v>
+        <v>173754.827184614</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26454,10 +26454,10 @@
         <v>173460.5839839468</v>
       </c>
       <c r="O4" t="n">
-        <v>150530.8792394562</v>
+        <v>150530.8792394561</v>
       </c>
       <c r="P4" t="n">
-        <v>150530.8792394562</v>
+        <v>150530.8792394561</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.5612881494</v>
+        <v>64406.32768295302</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.5612881494</v>
+        <v>64406.32768295302</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26488,16 +26488,16 @@
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391948</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391948</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446761</v>
+        <v>60332.67530588345</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255073</v>
+        <v>55320.4077825507</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255072</v>
+        <v>55320.4077825507</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>173783.2199427637</v>
+        <v>178134.665757058</v>
       </c>
       <c r="C6" t="n">
-        <v>351778.5170771138</v>
+        <v>347783.6716336081</v>
       </c>
       <c r="D6" t="n">
-        <v>342723.1096056356</v>
+        <v>334986.8203822449</v>
       </c>
       <c r="E6" t="n">
-        <v>258744.945404248</v>
+        <v>258636.3848501473</v>
       </c>
       <c r="F6" t="n">
-        <v>389197.8765419603</v>
+        <v>389089.3159878594</v>
       </c>
       <c r="G6" t="n">
-        <v>370437.3141542684</v>
+        <v>370437.3141542682</v>
       </c>
       <c r="H6" t="n">
         <v>399532.2700272825</v>
       </c>
       <c r="I6" t="n">
-        <v>399532.2700272826</v>
+        <v>399532.2700272824</v>
       </c>
       <c r="J6" t="n">
-        <v>171446.6266775329</v>
+        <v>177962.9118321057</v>
       </c>
       <c r="K6" t="n">
-        <v>393292.5016244992</v>
+        <v>393292.5016244994</v>
       </c>
       <c r="L6" t="n">
-        <v>354398.1546919112</v>
+        <v>350349.3174814394</v>
       </c>
       <c r="M6" t="n">
-        <v>356800.9930929142</v>
+        <v>355749.2980817261</v>
       </c>
       <c r="N6" t="n">
         <v>399532.2700272825</v>
       </c>
       <c r="O6" t="n">
-        <v>370917.9290686521</v>
+        <v>370816.7580760641</v>
       </c>
       <c r="P6" t="n">
-        <v>389901.4888988088</v>
+        <v>389800.3179062204</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129836</v>
+        <v>506.2290737327801</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129836</v>
+        <v>506.2290737327801</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,16 +26808,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443779</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443779</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880667</v>
+        <v>831.8776843078629</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304855</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087687</v>
+        <v>58.4072541935152</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165899</v>
+        <v>14.33013548902065</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>23.7294497876961</v>
+        <v>23.72944978769584</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129836</v>
+        <v>506.2290737327801</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631148</v>
+        <v>85.18305253651499</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559178</v>
+        <v>646.8007142757139</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455264</v>
+        <v>129.6883820257302</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304855</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129836</v>
+        <v>506.2290737327801</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631148</v>
+        <v>85.18305253651499</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>205.0794997347822</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>160.9220412857305</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>43.99219550354212</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>76.66721019408662</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>128.1091850427962</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27622,16 +27622,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>320.7199774854258</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>236.9951326713749</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27701,19 +27701,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>49.95104576570419</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>15.34787464025537</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27825,19 +27825,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>19.34431822393034</v>
       </c>
       <c r="U7" t="n">
-        <v>8.081670043413965</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>43.0921593262744</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>109.3961576736399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28059,25 +28059,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>220.1322412032064</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>220.1269184951917</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743162</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="17">
@@ -28746,19 +28746,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>5.636002634529092</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28980,31 +28980,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668825</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29220,16 +29220,16 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>5.63600263452949</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M26" t="n">
-        <v>30.27223765901226</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431644</v>
+        <v>30.27223765901087</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431644</v>
+        <v>30.27223765901087</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431665</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431636</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>26.78466270501286</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="P32" t="n">
-        <v>109.5863713539254</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.5863713539254</v>
+        <v>103.2865954513782</v>
       </c>
       <c r="R32" t="n">
-        <v>109.5863713539254</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5863713539254</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>109.5863713539254</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>109.5863713539254</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>58.99686212483275</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="N34" t="n">
-        <v>109.5863713539254</v>
+        <v>13.98970481640191</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539254</v>
+        <v>116.0298338265637</v>
       </c>
     </row>
     <row r="35">
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30183,13 +30183,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,22 +30402,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="J43" t="n">
-        <v>36.24905561692935</v>
+        <v>36.24905561693391</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30739,31 +30739,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="J46" t="n">
-        <v>36.24905561692935</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023193</v>
+        <v>36.24905561693402</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023193</v>
+        <v>96.46683947023173</v>
       </c>
     </row>
   </sheetData>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>57.63033170286712</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>277.4504183602654</v>
+        <v>506.2290737327801</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129836</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34778,19 +34778,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>9.211344719555122</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>506.2290737327801</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>249.0744016643606</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34939,22 +34939,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>451.0969745740258</v>
       </c>
       <c r="M5" t="n">
-        <v>531.1342317129836</v>
+        <v>506.2290737327801</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129836</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>33.7858473417874</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>403.7540970270433</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>531.1342317129836</v>
+        <v>506.2290737327801</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>162.837982970082</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>349.6338154341909</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35182,16 +35182,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>209.4698418249039</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>330.4341341043866</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>484.9700051773615</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,13 +35492,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>113.782083667694</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P14" t="n">
         <v>351.7045375065877</v>
@@ -35726,22 +35726,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O15" t="n">
-        <v>284.5297693407883</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>236.7324157120106</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215713</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,13 +35969,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>346.1939891046024</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36042,19 +36042,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>88.29766032133907</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36203,13 +36203,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634529181</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36297,10 +36297,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36516,16 +36516,16 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683763</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>190.6760370094883</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36601,22 +36601,22 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101038</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853755</v>
+        <v>216.98492467007</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>107.2231205187086</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272231</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36847,13 +36847,13 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853755</v>
+        <v>216.98492467007</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,16 +36917,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>659.4884462964891</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215758</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963363</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,16 +37081,16 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>471.2691080507992</v>
+        <v>560.51427917235</v>
       </c>
       <c r="P32" t="n">
-        <v>461.2909088605131</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>296.2990583649845</v>
+        <v>289.9992824624373</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659211</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576767</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>198.2933506465097</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.51188388176632</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>192.2480290407354</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>275.3718661759453</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>247.1701735776247</v>
+        <v>304.2031452793557</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288842</v>
+        <v>199.0297391913607</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>280.3780833636426</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>237.1168699645219</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37467,7 +37467,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>171.421497456549</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37479,13 +37479,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>424.9260266620927</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>6.174568144770276</v>
+        <v>6.17456814477484</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570419</v>
+        <v>179.1284971570417</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2523342922519</v>
+        <v>262.2523342922517</v>
       </c>
       <c r="M43" t="n">
-        <v>284.6401509230239</v>
+        <v>284.6401509230237</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451907</v>
+        <v>281.5068738451905</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8150890073108</v>
+        <v>260.8150890073106</v>
       </c>
       <c r="P43" t="n">
-        <v>217.5538756081901</v>
+        <v>217.5538756081899</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038441</v>
+        <v>99.92360348038422</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110588</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>172.5106644169666</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>6.174568144770283</v>
+        <v>66.39235199807266</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570419</v>
+        <v>179.1284971570417</v>
       </c>
       <c r="L46" t="n">
-        <v>262.2523342922519</v>
+        <v>262.2523342922517</v>
       </c>
       <c r="M46" t="n">
-        <v>284.6401509230239</v>
+        <v>284.6401509230237</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451907</v>
+        <v>221.2890899918928</v>
       </c>
       <c r="O46" t="n">
-        <v>260.8150890073108</v>
+        <v>260.8150890073106</v>
       </c>
       <c r="P46" t="n">
-        <v>217.5538756081901</v>
+        <v>217.5538756081899</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038441</v>
+        <v>99.92360348038422</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
